--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_15.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_15.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.982168238135584</v>
+        <v>0.9146139106105146</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7250488917518718</v>
+        <v>0.7588508470091861</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7175415741418354</v>
+        <v>0.6625270981285875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9722364334012066</v>
+        <v>0.8604610771725322</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07483608992926266</v>
+        <v>0.3583471511590234</v>
       </c>
       <c r="G2" t="n">
-        <v>1.838599326888675</v>
+        <v>1.612565496439321</v>
       </c>
       <c r="H2" t="n">
-        <v>1.010337411414109</v>
+        <v>1.207121002190896</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2294312293696585</v>
+        <v>0.3481797020982961</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3041343994624003</v>
+        <v>1.688658782088567</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2735618575921407</v>
+        <v>0.5986210413600773</v>
       </c>
       <c r="L2" t="n">
-        <v>1.010438104506</v>
+        <v>0.7072476935217642</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2852079522209507</v>
+        <v>0.6241055784071622</v>
       </c>
       <c r="N2" t="n">
-        <v>135.1849100493503</v>
+        <v>36.05250613291587</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4118386657834</v>
+        <v>56.77339515567528</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9822341625202304</v>
+        <v>0.9150555677988091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7248292087012234</v>
+        <v>0.7577245155026406</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7173224501427333</v>
+        <v>0.6637773978966475</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9720548757962657</v>
+        <v>0.8584347732776237</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07455941938961319</v>
+        <v>0.3564936104201761</v>
       </c>
       <c r="G3" t="n">
-        <v>1.840068348459909</v>
+        <v>1.62009728040987</v>
       </c>
       <c r="H3" t="n">
-        <v>1.011121205253358</v>
+        <v>1.202648752417091</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2309315763929697</v>
+        <v>0.3532357672605746</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3017466783847454</v>
+        <v>1.671484933931108</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2730557074840466</v>
+        <v>0.5970708587933061</v>
       </c>
       <c r="L3" t="n">
-        <v>1.010399514622304</v>
+        <v>0.7087619467387742</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2846802542548798</v>
+        <v>0.6224894013592033</v>
       </c>
       <c r="N3" t="n">
-        <v>135.1923177915832</v>
+        <v>36.06287792474694</v>
       </c>
       <c r="O3" t="n">
-        <v>214.4192464080162</v>
+        <v>56.78376694750634</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9822945406183874</v>
+        <v>0.9153858493856436</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7246090169712885</v>
+        <v>0.7565344884553596</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7171009155809058</v>
+        <v>0.6649872118086083</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9718662222840878</v>
+        <v>0.8554357526722395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07430602542788406</v>
+        <v>0.3551074892549057</v>
       </c>
       <c r="G4" t="n">
-        <v>1.841540771571872</v>
+        <v>1.628054996754609</v>
       </c>
       <c r="H4" t="n">
-        <v>1.011913621535703</v>
+        <v>1.198321318203049</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2324905622339945</v>
+        <v>0.3607189703684303</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2993828718964964</v>
+        <v>1.65427250280499</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2725913157602128</v>
+        <v>0.5959089605425527</v>
       </c>
       <c r="L4" t="n">
-        <v>1.010364171345334</v>
+        <v>0.7098943407507781</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2841960924139392</v>
+        <v>0.6212780386944543</v>
       </c>
       <c r="N4" t="n">
-        <v>135.1991264692254</v>
+        <v>36.07066949740761</v>
       </c>
       <c r="O4" t="n">
-        <v>214.4260550856584</v>
+        <v>56.79155852016702</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9823494652306743</v>
+        <v>0.9156025990100828</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7243883914933293</v>
+        <v>0.7552831117423197</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7168766312485932</v>
+        <v>0.6661622530630354</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9716705281670948</v>
+        <v>0.8514427268827083</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0740755185797278</v>
+        <v>0.3541978374487636</v>
       </c>
       <c r="G5" t="n">
-        <v>1.843016095158872</v>
+        <v>1.636422958596768</v>
       </c>
       <c r="H5" t="n">
-        <v>1.012715873587632</v>
+        <v>1.19411826376877</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2341077298872337</v>
+        <v>0.3706824307542382</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2970446683576001</v>
+        <v>1.637009206022409</v>
       </c>
       <c r="K5" t="n">
-        <v>0.272168180689308</v>
+        <v>0.5951452238309265</v>
       </c>
       <c r="L5" t="n">
-        <v>1.010332020352776</v>
+        <v>0.7106374823202839</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2837549436070555</v>
+        <v>0.6204817881298612</v>
       </c>
       <c r="N5" t="n">
-        <v>135.2053403696164</v>
+        <v>36.07579931820887</v>
       </c>
       <c r="O5" t="n">
-        <v>214.4322689860495</v>
+        <v>56.79668834096827</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9823991018691901</v>
+        <v>0.9157045567955893</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7241673777547151</v>
+        <v>0.7539736320937869</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7166500436114076</v>
+        <v>0.6673075773778139</v>
       </c>
       <c r="E6" t="n">
-        <v>0.971468078355748</v>
+        <v>0.846442625310882</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07386720422627298</v>
+        <v>0.353769942434061</v>
       </c>
       <c r="G6" t="n">
-        <v>1.84449401504666</v>
+        <v>1.645179455036106</v>
       </c>
       <c r="H6" t="n">
-        <v>1.013526364427539</v>
+        <v>1.190021505104527</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2357807249232882</v>
+        <v>0.3831587623788724</v>
       </c>
       <c r="J6" t="n">
-        <v>0.29472944009747</v>
+        <v>1.619691924043268</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2717852170856115</v>
+        <v>0.594785627292776</v>
       </c>
       <c r="L6" t="n">
-        <v>1.010302964759499</v>
+        <v>0.7109870518705919</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2833556764499058</v>
+        <v>0.6201068828226142</v>
       </c>
       <c r="N6" t="n">
-        <v>135.2109726707442</v>
+        <v>36.07821691448352</v>
       </c>
       <c r="O6" t="n">
-        <v>214.4379012871773</v>
+        <v>56.79910593724293</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9824435767074228</v>
+        <v>0.9156918994023384</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7239460490783086</v>
+        <v>0.7526099413506273</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7164213451483743</v>
+        <v>0.6684291890780831</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9712591095517428</v>
+        <v>0.8404340913884827</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07368055284438026</v>
+        <v>0.353823062805833</v>
       </c>
       <c r="G7" t="n">
-        <v>1.845974040924915</v>
+        <v>1.654298461314832</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01434440556911</v>
+        <v>1.186009565087446</v>
       </c>
       <c r="I7" t="n">
-        <v>0.237507591298047</v>
+        <v>0.3981513501727109</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2924401787475797</v>
+        <v>1.602314301624107</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2714416195876753</v>
+        <v>0.5948302806732632</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01027693070785</v>
+        <v>0.7109436550937318</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2829974512951375</v>
+        <v>0.6201534371899539</v>
       </c>
       <c r="N7" t="n">
-        <v>135.2160327674929</v>
+        <v>36.0779166267674</v>
       </c>
       <c r="O7" t="n">
-        <v>214.442961383926</v>
+        <v>56.79880564952681</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9824830429936009</v>
+        <v>0.915566019570654</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7237244170061061</v>
+        <v>0.7511966271356944</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7161903946212886</v>
+        <v>0.6695324437327528</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9710437613523994</v>
+        <v>0.8334269837347734</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07351492128401864</v>
+        <v>0.3543513535308799</v>
       </c>
       <c r="G8" t="n">
-        <v>1.847456095612255</v>
+        <v>1.663749299977803</v>
       </c>
       <c r="H8" t="n">
-        <v>1.015170502213215</v>
+        <v>1.182063287158074</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2392871754138726</v>
+        <v>0.415635594754818</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2901712473886326</v>
+        <v>1.584872347195809</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2711363518306216</v>
+        <v>0.5952741834910026</v>
       </c>
       <c r="L8" t="n">
-        <v>1.010253828491551</v>
+        <v>0.7105120670993851</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2826791876576747</v>
+        <v>0.62061623786965</v>
       </c>
       <c r="N8" t="n">
-        <v>135.2205337654006</v>
+        <v>36.07493266795241</v>
       </c>
       <c r="O8" t="n">
-        <v>214.4474623818336</v>
+        <v>56.79582169071182</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9825175865580504</v>
+        <v>0.9153299537610257</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7235025877229739</v>
+        <v>0.7497394663347341</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7159571528208588</v>
+        <v>0.6706225840233138</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9708222695163298</v>
+        <v>0.8254465998868725</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07336994933367103</v>
+        <v>0.3553420712340935</v>
       </c>
       <c r="G9" t="n">
-        <v>1.84893946904999</v>
+        <v>1.673493340963432</v>
       </c>
       <c r="H9" t="n">
-        <v>1.016004794609216</v>
+        <v>1.178163918548703</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2411175290200631</v>
+        <v>0.4355483733150178</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2879284842307057</v>
+        <v>1.567371591668279</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2708688784885983</v>
+        <v>0.5961057550754677</v>
       </c>
       <c r="L9" t="n">
-        <v>1.010233607868458</v>
+        <v>0.7097026986092309</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2824003274217353</v>
+        <v>0.6214832111780564</v>
       </c>
       <c r="N9" t="n">
-        <v>135.2244816736313</v>
+        <v>36.06934874502344</v>
       </c>
       <c r="O9" t="n">
-        <v>214.4514102900644</v>
+        <v>56.79023776778285</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9825473412643788</v>
+        <v>0.9149886587089116</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7232807058428476</v>
+        <v>0.7482450886018701</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7157220892503693</v>
+        <v>0.6717048823546639</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9705948270007932</v>
+        <v>0.8165340596505057</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07324507519641305</v>
+        <v>0.3567744135571139</v>
       </c>
       <c r="G10" t="n">
-        <v>1.850423194204066</v>
+        <v>1.683486251744071</v>
       </c>
       <c r="H10" t="n">
-        <v>1.016845603371088</v>
+        <v>1.174292600172727</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2429970575656764</v>
+        <v>0.4577870830711062</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2857097143390771</v>
+        <v>1.55006904600621</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2706382737094165</v>
+        <v>0.5973059631019214</v>
       </c>
       <c r="L10" t="n">
-        <v>1.010216190479388</v>
+        <v>0.7085325441448396</v>
       </c>
       <c r="M10" t="n">
-        <v>0.282159905319686</v>
+        <v>0.6227345145449693</v>
       </c>
       <c r="N10" t="n">
-        <v>135.2278885323173</v>
+        <v>36.06130318346032</v>
       </c>
       <c r="O10" t="n">
-        <v>214.4548171487504</v>
+        <v>56.78219220621973</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9825724649463162</v>
+        <v>0.9145487276258039</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7230586181198723</v>
+        <v>0.7467211308814052</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7154852272086958</v>
+        <v>0.6727842240536197</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9703616053877816</v>
+        <v>0.8067475027941671</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07313963647784326</v>
+        <v>0.3586207102017447</v>
       </c>
       <c r="G11" t="n">
-        <v>1.851908295830223</v>
+        <v>1.693676964038</v>
       </c>
       <c r="H11" t="n">
-        <v>1.017692845160104</v>
+        <v>1.170431857499389</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2449243431396833</v>
+        <v>0.4822066527636514</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2835127713953371</v>
+        <v>1.534919809342587</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2704434071628355</v>
+        <v>0.5988494887713812</v>
       </c>
       <c r="L11" t="n">
-        <v>1.010201483933864</v>
+        <v>0.7070242090027561</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2819567429007878</v>
+        <v>0.6243437512977167</v>
       </c>
       <c r="N11" t="n">
-        <v>135.2307696729938</v>
+        <v>36.05097993309165</v>
       </c>
       <c r="O11" t="n">
-        <v>214.4576982894268</v>
+        <v>56.77186895585105</v>
       </c>
     </row>
   </sheetData>
